--- a/Pianificazione della produzione/tabella_greedy.xlsx
+++ b/Pianificazione della produzione/tabella_greedy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_175C7BFE0804AA437E5B2AAA288093B7F9398178" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{186F9305-1719-40A8-A8D8-DE124F4EC1A7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801431C-AB69-4CAD-9D45-C6CD8ACFE118}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -214,7 +214,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -227,7 +227,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
+              <a:rPr lang="it-IT" sz="1800"/>
               <a:t>Semilavorati </a:t>
             </a:r>
           </a:p>
@@ -241,26 +241,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -269,10 +249,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.1423338964743689E-2"/>
-          <c:y val="0.1115277777777778"/>
-          <c:w val="0.91087773838867814"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="9.2574526948739341E-2"/>
+          <c:y val="0.1300462962962963"/>
+          <c:w val="0.88341086554438164"/>
+          <c:h val="0.71625801983085435"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -318,7 +298,17 @@
                     <a:fld id="{393F2EB4-284A-4A97-8C48-4814EE76C90E}" type="YVALUE">
                       <a:rPr lang="en-US"/>
                       <a:pPr>
-                        <a:defRPr/>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
                       </a:pPr>
                       <a:t>[VALORE Y]</a:t>
                     </a:fld>
@@ -333,28 +323,6 @@
                 </a:ln>
                 <a:effectLst/>
               </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="t" anchorCtr="1">
-                  <a:noAutofit/>
-                </a:bodyPr>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="75000"/>
-                          <a:lumOff val="25000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -363,12 +331,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="9.2842698559532921E-2"/>
-                      <c:h val="6.0115923009623796E-2"/>
-                    </c:manualLayout>
-                  </c15:layout>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
                   <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="0"/>
                 </c:ext>
@@ -497,6 +464,63 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Foglio1!$B$14:$B$17</c:f>
@@ -578,6 +602,41 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -643,6 +702,41 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -681,6 +775,1574 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="475599320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800"/>
+              <a:t>Prodotti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" baseline="0"/>
+              <a:t> finiti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$86:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$86:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9875-4FB5-ADBD-D2B8B9B54C7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591930272"/>
+        <c:axId val="591931584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591930272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591931584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591931584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>MIGLIORAMENTO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591930272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800"/>
+              <a:t>Diversificazione</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.3737349189126379E-2"/>
+          <c:y val="0.13467592592592592"/>
+          <c:w val="0.86399168951104555"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$103:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$103:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DA1-404A-9C77-FBBE77FE3BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>fgd</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$103:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$D$103:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DA1-404A-9C77-FBBE77FE3BE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="577833256"/>
+        <c:axId val="577832272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="577833256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577832272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="577832272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>MIGLIORAMENTO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="577833256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Diversificazione</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$103:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$C$103:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0C87-46B9-A0FF-E2889DA201DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Foglio1!$B$103:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$D$103:$D$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>97</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0C87-46B9-A0FF-E2889DA201DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="428575616"/>
+        <c:axId val="428573320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="428575616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428573320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="428573320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>MIGLIORAMENTO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428575616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1082,6 +2744,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1147,6 +2864,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1309,7 +3081,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11041464917169413"/>
+          <c:y val="0.15729184893554973"/>
+          <c:w val="0.86139317705467366"/>
+          <c:h val="0.69827172645086033"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -1500,6 +3282,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1562,6 +3399,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1605,7 +3497,7 @@
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1669,7 +3561,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1682,7 +3574,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT"/>
+              <a:rPr lang="it-IT" sz="1800"/>
               <a:t>Semilavorati</a:t>
             </a:r>
           </a:p>
@@ -1701,7 +3593,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1724,10 +3616,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.1423338964743689E-2"/>
-          <c:y val="0.1115277777777778"/>
-          <c:w val="0.91087773838867814"/>
-          <c:h val="0.72088764946048411"/>
+          <c:x val="7.603616379564522E-2"/>
+          <c:y val="0.12541666666666668"/>
+          <c:w val="0.89626496337452055"/>
+          <c:h val="0.70699876057159516"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1920,6 +3812,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1983,6 +3930,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2084,6 +4086,34 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Prodotti finiti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2097,7 +4127,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2306,6 +4336,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2368,6 +4453,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2469,6 +4609,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800"/>
+              <a:t>Prodotti</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" baseline="0"/>
+              <a:t> finiti</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2482,7 +4652,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2777,6 +4947,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2842,6 +5067,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3274,6 +5554,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3336,6 +5671,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>MIGLIORAMENTO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3867,6 +6257,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3932,6 +6377,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>MIGLIORAMENTO</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4054,7 +6554,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Requisiti</a:t>
+              <a:t>Obiettivi</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4095,8 +6595,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.1136482939632549E-2"/>
-          <c:y val="0.17171296296296298"/>
+          <c:x val="5.6805318487941098E-2"/>
+          <c:y val="0.17171300125580155"/>
           <c:w val="0.9155301837270341"/>
           <c:h val="0.61498432487605714"/>
         </c:manualLayout>
@@ -4142,6 +6642,64 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio1!$B$115:$D$115</c:f>
@@ -4170,7 +6728,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Soddisfatti</c:v>
+            <c:v>fdg</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4182,6 +6740,64 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Foglio1!$B$116:$D$116</c:f>
@@ -4202,13 +6818,14 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4E82-404B-B17B-32472FFE0707}"/>
+              <c16:uniqueId val="{00000004-1466-4FB7-9AAE-0C3B85B30324}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4301,37 +6918,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4371,6 +6957,86 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5246,7 +7912,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5762,8 +8428,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5790,8 +8456,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5892,7 +8558,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -5924,10 +8590,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6248,17 +8914,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -6278,7 +8933,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6794,7 +9449,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7310,7 +9965,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7826,7 +10481,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8342,7 +10997,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8858,8 +11513,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8886,8 +11541,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8988,7 +11643,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -9020,6 +11675,522 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -9342,6 +12513,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -9366,7 +13053,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1663147</xdr:colOff>
+      <xdr:colOff>1636059</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>162750</xdr:rowOff>
     </xdr:from>
@@ -9695,122 +13382,114 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1048871</xdr:colOff>
-      <xdr:row>108</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="828304" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="CasellaDiTesto 3">
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>449037</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B23028F-C739-4931-A0E8-603AA2E51C3D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709F1FE0-626D-4AA8-B0BC-EBB5B1BE350B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8579224" y="19516164"/>
-          <a:ext cx="828304" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>Obbligatori</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1147483</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>53787</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446942</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>166008</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="861583" cy="264560"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CasellaDiTesto 16">
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312964</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>51708</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D395D7B5-FE84-4208-BF0F-CE0522B51A50}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1312ADC-D3C0-40E4-8CE6-0A37FC2FB174}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9959789" y="20314022"/>
-          <a:ext cx="861583" cy="264560"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="it-IT" sz="1100"/>
-            <a:t>Desiderabili</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>421821</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>138793</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>598714</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>24493</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692C1546-80D9-429D-9E5A-F504C870B9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9818,12 +13497,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.72092</cdr:x>
-      <cdr:y>0.46296</cdr:y>
+      <cdr:x>0.7283</cdr:x>
+      <cdr:y>0.40037</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.89022</cdr:x>
-      <cdr:y>0.55941</cdr:y>
+      <cdr:x>0.8976</cdr:x>
+      <cdr:y>0.49682</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -9838,8 +13517,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3296024" y="1270000"/>
-          <a:ext cx="774058" cy="264560"/>
+          <a:off x="3270800" y="1165593"/>
+          <a:ext cx="760330" cy="280794"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9960,6 +13639,304 @@
           <a:r>
             <a:rPr lang="it-IT" sz="1100"/>
             <a:t>Facoltativi</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42515</cdr:x>
+      <cdr:y>0.39442</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.61744</cdr:x>
+      <cdr:y>0.48529</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="CasellaDiTesto 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1967868-90DB-49CD-A6AB-E205D4140B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1909354" y="1148256"/>
+          <a:ext cx="863579" cy="264549"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Desiderabili</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.11478</cdr:x>
+      <cdr:y>0.10322</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.29965</cdr:x>
+      <cdr:y>0.19409</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="CasellaDiTesto 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1967868-90DB-49CD-A6AB-E205D4140B8E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="515474" y="300517"/>
+          <a:ext cx="830256" cy="264549"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="it-IT" sz="1100"/>
+            <a:t>Obbligatori</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -10291,21 +14268,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H102" sqref="H102"/>
+    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -10325,7 +14302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -10336,7 +14313,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -10353,7 +14330,7 @@
         <v>0.42299931495202803</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -10370,7 +14347,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -10387,7 +14364,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -10404,7 +14381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -10421,7 +14398,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -10438,7 +14415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1000</v>
       </c>
@@ -10452,7 +14429,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2000</v>
       </c>
@@ -10466,7 +14443,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -10483,7 +14460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -10500,7 +14477,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -10517,7 +14494,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1000</v>
       </c>
@@ -10531,7 +14508,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2000</v>
       </c>
@@ -10545,7 +14522,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -10562,7 +14539,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -10579,7 +14556,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>100</v>
       </c>
@@ -10593,7 +14570,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1000</v>
       </c>
@@ -10607,7 +14584,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2000</v>
       </c>
@@ -10621,7 +14598,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>15</v>
       </c>
@@ -10629,7 +14606,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>16</v>
       </c>
@@ -10637,7 +14614,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>17</v>
       </c>
@@ -10645,7 +14622,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>18</v>
       </c>
@@ -10653,7 +14630,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -10670,7 +14647,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -10687,7 +14664,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>100</v>
       </c>
@@ -10701,7 +14678,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1000</v>
       </c>
@@ -10715,7 +14692,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>2000</v>
       </c>
@@ -10729,7 +14706,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -10744,7 +14721,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>10</v>
       </c>
@@ -10755,7 +14732,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>100</v>
       </c>
@@ -10766,7 +14743,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>1000</v>
       </c>
@@ -10777,7 +14754,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>2000</v>
       </c>
@@ -10788,7 +14765,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -10802,7 +14779,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>5</v>
       </c>
@@ -10813,7 +14790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>5</v>
       </c>

--- a/Pianificazione della produzione/tabella_greedy.xlsx
+++ b/Pianificazione della produzione/tabella_greedy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1801431C-AB69-4CAD-9D45-C6CD8ACFE118}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93942CF2-829B-4527-BB47-FF07666E6AE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -857,454 +857,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800"/>
-              <a:t>Prodotti</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800" baseline="0"/>
-              <a:t> finiti</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT" sz="1800"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$86:$B$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$E$86:$E$89</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9875-4FB5-ADBD-D2B8B9B54C7A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="591930272"/>
-        <c:axId val="591931584"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="591930272"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>ITERAZIONI</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="591931584"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="591931584"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>MIGLIORAMENTO</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="591930272"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800"/>
-              <a:t>Diversificazione</a:t>
+              <a:rPr lang="it-IT" sz="1600"/>
+              <a:t>Miglioramento della pianificazione applicando i criteri di diversificazione</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1346,9 +900,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.3737349189126379E-2"/>
-          <c:y val="0.13467592592592592"/>
+          <c:y val="0.19102813089573098"/>
           <c:w val="0.86399168951104555"/>
-          <c:h val="0.72088764946048411"/>
+          <c:h val="0.66453552559657203"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1679,7 +1233,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>MIGLIORAMENTO</a:t>
+                  <a:t>MIGLIORAMENTO %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1799,7 +1353,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -2345,6 +1899,480 @@
         <c:crossAx val="428575616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Andamento temporale Tabu Search</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$34:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$D$34:$D$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>754</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE7A-47D9-8FC2-FFB2324E760C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="429307832"/>
+        <c:axId val="429308160"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="429307832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429308160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="429308160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>SECONDI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="429307832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3026,541 +3054,6 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Semilavorati e ordini fornitori</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11041464917169413"/>
-          <c:y val="0.15729184893554973"/>
-          <c:w val="0.86139317705467366"/>
-          <c:h val="0.69827172645086033"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$D$34:$D$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.2000000000000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>411</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>754</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7DED-4C67-9793-980F6B1FCCBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>greedy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$34:$B$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$C$34:$C$37</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7DED-4C67-9793-980F6B1FCCBE}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="226275336"/>
-        <c:axId val="483053776"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="226275336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>ITERAZIONI</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="483053776"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="483053776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>SECONDI</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="226275336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln w="25400">
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
               <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -3575,8 +3068,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT" sz="1800"/>
-              <a:t>Semilavorati</a:t>
+              <a:t>Andamento</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" baseline="0"/>
+              <a:t> temporale Tabu Search</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3698,85 +3196,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9073-4EE5-BC4F-427C74C18223}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>greedy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$14:$B$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$C$14:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>15.7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9073-4EE5-BC4F-427C74C18223}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4071,7 +3490,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4105,10 +3524,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Prodotti finiti</a:t>
+              <a:rPr lang="it-IT" sz="1800"/>
+              <a:t>Andamento</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1800" baseline="0"/>
+              <a:t> temporale Tabu Search</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT" sz="1800"/>
           </a:p>
@@ -4222,85 +3643,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DD7A-4654-AF5E-A0641E4FC75A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>greedy</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$60:$B$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$C$60:$C$63</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>8.3000000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8.6999999999999993</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-DD7A-4654-AF5E-A0641E4FC75A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4594,7 +3936,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5208,7 +4550,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5692,7 +5034,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t>MIGLIORAMENTO</a:t>
+                  <a:t>MIGLIORAMENTO %</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5813,7 +5155,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6519,7 +5861,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6953,6 +6295,452 @@
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1700"/>
+              <a:t>Miglioramento</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1700" baseline="0"/>
+              <a:t> della pianificazione degli ordini fornitori</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT" sz="1700"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$86:$B$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$E$86:$E$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9875-4FB5-ADBD-D2B8B9B54C7A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="591930272"/>
+        <c:axId val="591931584"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="591930272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>ITERAZIONI</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591931584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="591931584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>MIGLIORAMENTO %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="591930272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -7913,7 +7701,7 @@
 </file>
 
 <file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7940,8 +7728,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8042,7 +7830,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8074,10 +7862,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8398,17 +8186,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -8429,7 +8206,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -8456,8 +8233,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -8558,7 +8335,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -8590,10 +8367,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -8914,6 +8691,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -11514,7 +11302,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11541,8 +11329,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11643,7 +11431,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11675,10 +11463,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -11718,23 +11506,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -11839,8 +11626,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11972,20 +11759,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -11999,17 +11785,6 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -12030,7 +11805,7 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12057,8 +11832,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12159,7 +11934,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -12191,10 +11966,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12234,22 +12009,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12354,8 +12130,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12487,19 +12263,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12513,6 +12290,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13125,44 +12913,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>44824</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>134471</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>199782</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>20171</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Grafico 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>168089</xdr:rowOff>
@@ -13192,7 +12942,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13228,7 +12978,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13266,7 +13016,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13302,7 +13052,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13340,7 +13090,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13376,7 +13126,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13384,16 +13134,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>340179</xdr:colOff>
-      <xdr:row>103</xdr:row>
-      <xdr:rowOff>2722</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>125866</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>26534</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>449037</xdr:colOff>
-      <xdr:row>120</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>234724</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>64633</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13412,7 +13162,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13420,16 +13170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>446942</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>166008</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>113567</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>70758</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>138</xdr:row>
-      <xdr:rowOff>51708</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13448,7 +13198,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -13473,6 +13223,42 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{692C1546-80D9-429D-9E5A-F504C870B9A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>176891</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>125185</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>326572</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0831B4AF-DFB0-4A18-9BD2-DF1408F2DBF9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14268,8 +14054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B99" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK117" sqref="AK117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pianificazione della produzione/tabella_greedy.xlsx
+++ b/Pianificazione della produzione/tabella_greedy.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93942CF2-829B-4527-BB47-FF07666E6AE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060ADF0F-B704-4A8F-BC61-589ECB212456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4589,7 +4589,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> del valore della soluzione</a:t>
+              <a:t> del valore della soluzione nelle fasi del progetto</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -14054,7 +14054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AK117" sqref="AK117"/>
     </sheetView>
   </sheetViews>

--- a/Pianificazione della produzione/tabella_greedy.xlsx
+++ b/Pianificazione della produzione/tabella_greedy.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060ADF0F-B704-4A8F-BC61-589ECB212456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{060ADF0F-B704-4A8F-BC61-589ECB212456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E041363C-1A4B-43AA-AF06-FC456FE0CAD8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -911,6 +911,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Pianificazione precedente</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -988,7 +991,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>fgd</c:v>
+            <c:v>Pianificazione con diversificazione</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -1064,6 +1067,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1316,6 +1320,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.62650229698705262"/>
+          <c:y val="0.63123401051848893"/>
+          <c:w val="0.31067411284058977"/>
+          <c:h val="0.12960630197444692"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -4626,13 +4671,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10064408515582088"/>
+          <c:y val="0.11970176588300001"/>
+          <c:w val="0.85082884812784565"/>
+          <c:h val="0.75059978562904961"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Prodotti finiti</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -4710,7 +4768,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>serie2</c:v>
+            <c:v>Semilavorati</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -4789,7 +4847,7 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>serie3</c:v>
+            <c:v>Ordini fornitori</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -5118,6 +5176,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.77528455687586362"/>
+          <c:y val="0.31095553501144879"/>
+          <c:w val="0.17175259897424947"/>
+          <c:h val="0.15674844651445824"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -14054,21 +14153,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D72" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK117" sqref="AK117"/>
+    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -14088,7 +14187,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14099,7 +14198,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -14116,7 +14215,7 @@
         <v>0.42299931495202803</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -14133,7 +14232,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14150,7 +14249,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -14167,7 +14266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14184,7 +14283,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -14201,7 +14300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>1000</v>
       </c>
@@ -14215,7 +14314,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>2000</v>
       </c>
@@ -14229,7 +14328,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -14246,7 +14345,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -14263,7 +14362,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -14280,7 +14379,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>1000</v>
       </c>
@@ -14294,7 +14393,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>2000</v>
       </c>
@@ -14308,7 +14407,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -14325,7 +14424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -14342,7 +14441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B61">
         <v>100</v>
       </c>
@@ -14356,7 +14455,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B62">
         <v>1000</v>
       </c>
@@ -14370,7 +14469,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B63">
         <v>2000</v>
       </c>
@@ -14384,7 +14483,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
         <v>15</v>
       </c>
@@ -14392,7 +14491,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
         <v>16</v>
       </c>
@@ -14400,7 +14499,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
         <v>17</v>
       </c>
@@ -14408,7 +14507,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
         <v>18</v>
       </c>
@@ -14416,7 +14515,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -14433,7 +14532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -14450,7 +14549,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>100</v>
       </c>
@@ -14464,7 +14563,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>1000</v>
       </c>
@@ -14478,7 +14577,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>2000</v>
       </c>
@@ -14492,7 +14591,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -14507,7 +14606,7 @@
       </c>
       <c r="E102" s="3"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B103">
         <v>10</v>
       </c>
@@ -14518,7 +14617,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B104">
         <v>100</v>
       </c>
@@ -14529,7 +14628,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B105">
         <v>1000</v>
       </c>
@@ -14540,7 +14639,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B106">
         <v>2000</v>
       </c>
@@ -14551,7 +14650,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -14565,7 +14664,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B115">
         <v>5</v>
       </c>
@@ -14576,7 +14675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B116">
         <v>5</v>
       </c>

--- a/Pianificazione della produzione/tabella_greedy.xlsx
+++ b/Pianificazione della produzione/tabella_greedy.xlsx
@@ -3,19 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{060ADF0F-B704-4A8F-BC61-589ECB212456}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{E041363C-1A4B-43AA-AF06-FC456FE0CAD8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF8241E-3161-4D31-A246-CFDC0DE79EDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>durata</t>
   </si>
@@ -129,6 +137,33 @@
   </si>
   <si>
     <t>facolt</t>
+  </si>
+  <si>
+    <t>prev</t>
+  </si>
+  <si>
+    <t>effettive</t>
+  </si>
+  <si>
+    <t>Analisi dell'applicativo esistente</t>
+  </si>
+  <si>
+    <t>Analisi dei requisiti</t>
+  </si>
+  <si>
+    <t>Studio delle tecnologie</t>
+  </si>
+  <si>
+    <t>Studio di tecniche di Ottimizzazione Combinatoria</t>
+  </si>
+  <si>
+    <t>Sviluppo delle componenti</t>
+  </si>
+  <si>
+    <t>Validazione e test</t>
+  </si>
+  <si>
+    <t>Stesura della documentazione</t>
   </si>
 </sst>
 </file>
@@ -909,87 +944,8 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Pianificazione precedente</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$B$103:$B$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$C$103:$C$106</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>82</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9DA1-404A-9C77-FBBE77FE3BE9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
           <c:tx>
             <c:v>Pianificazione con diversificazione</c:v>
           </c:tx>
@@ -1066,8 +1022,86 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pianificazione senza diversificazione</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$B$103:$B$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$C$103:$C$106</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>82</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF31-456C-8D0A-A443A97B04F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
-          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1327,9 +1361,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.62650229698705262"/>
-          <c:y val="0.63123401051848893"/>
-          <c:w val="0.31067411284058977"/>
-          <c:h val="0.12960630197444692"/>
+          <c:y val="0.55788765752877978"/>
+          <c:w val="0.32224723901279051"/>
+          <c:h val="0.1237729633516199"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2427,6 +2461,1111 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Ore</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> preventivate</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.1285433070866142E-2"/>
+                  <c:y val="1.0196121318168562E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.5135608048993874E-3"/>
+                  <c:y val="5.7640711577719448E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.3026246719160105E-2"/>
+                  <c:y val="-1.086687080781569E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7152230971128613E-3"/>
+                  <c:y val="-3.6219743365412657E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.4897200349956132E-3"/>
+                  <c:y val="1.9652960046660835E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="9.0903324584426948E-3"/>
+                  <c:y val="1.7767206182560513E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$101:$AF$107</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Analisi dell'applicativo esistente</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analisi dei requisiti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Studio delle tecnologie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Studio di tecniche di Ottimizzazione Combinatoria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sviluppo delle componenti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Validazione e test</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stesura della documentazione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AJ$102:$AJ$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AB2-4DDB-AA33-F1B8903CBB3A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Ore</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> effettive</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>effettive</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-AC2D-4EAA-ADDC-B40A597B2281}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.8507655293088364E-2"/>
+                  <c:y val="1.4825750947798193E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-AC2D-4EAA-ADDC-B40A597B2281}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.1846894138232721E-2"/>
+                  <c:y val="5.7640711577719448E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-AC2D-4EAA-ADDC-B40A597B2281}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.5804024496937883E-2"/>
+                  <c:y val="8.1725721784776904E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-AC2D-4EAA-ADDC-B40A597B2281}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.7152230971128613E-3"/>
+                  <c:y val="-2.6960484106153398E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AC2D-4EAA-ADDC-B40A597B2281}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.1377077865266842E-2"/>
+                  <c:y val="2.7121609798775152E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-AC2D-4EAA-ADDC-B40A597B2281}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$AE$101:$AF$107</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Analisi dell'applicativo esistente</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Analisi dei requisiti</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Studio delle tecnologie</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Studio di tecniche di Ottimizzazione Combinatoria</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Sviluppo delle componenti</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Validazione e test</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Stesura della documentazione</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$AK$102:$AK$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-AC2D-4EAA-ADDC-B40A597B2281}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -6963,6 +8102,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -8801,6 +10020,1044 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13370,6 +15627,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>78685</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>28160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>360294</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>104360</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Grafico 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DB9CF9A-469A-48A5-9FF8-56F93D0D0E41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>49696</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>331305</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>142461</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Grafico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3D7A630-CA7F-47E7-A8F4-FA87F3CDFB5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -14151,23 +16482,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:AK116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B74" zoomScale="88" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="B66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O104" sqref="O104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -14187,7 +16519,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -14198,7 +16530,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -14215,7 +16547,7 @@
         <v>0.42299931495202803</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -14232,7 +16564,7 @@
         <v>42.3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -14249,7 +16581,7 @@
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -14266,7 +16598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -14283,7 +16615,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -14300,7 +16632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>1000</v>
       </c>
@@ -14314,7 +16646,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>2000</v>
       </c>
@@ -14328,7 +16660,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -14345,7 +16677,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -14362,7 +16694,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
@@ -14379,7 +16711,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>1000</v>
       </c>
@@ -14393,7 +16725,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37">
         <v>2000</v>
       </c>
@@ -14407,7 +16739,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -14424,7 +16756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>24</v>
       </c>
@@ -14441,7 +16773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61">
         <v>100</v>
       </c>
@@ -14455,7 +16787,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62">
         <v>1000</v>
       </c>
@@ -14469,7 +16801,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63">
         <v>2000</v>
       </c>
@@ -14483,7 +16815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>15</v>
       </c>
@@ -14491,7 +16823,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>16</v>
       </c>
@@ -14499,7 +16831,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>17</v>
       </c>
@@ -14507,7 +16839,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>18</v>
       </c>
@@ -14515,7 +16847,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>29</v>
       </c>
@@ -14532,7 +16864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>30</v>
       </c>
@@ -14549,7 +16881,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87">
         <v>100</v>
       </c>
@@ -14563,7 +16895,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88">
         <v>1000</v>
       </c>
@@ -14577,7 +16909,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89">
         <v>2000</v>
       </c>
@@ -14591,7 +16923,18 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AE101" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ101" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK101" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>31</v>
       </c>
@@ -14605,8 +16948,17 @@
         <v>33</v>
       </c>
       <c r="E102" s="3"/>
+      <c r="AE102" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ102">
+        <v>40</v>
+      </c>
+      <c r="AK102">
+        <v>40</v>
+      </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>10</v>
       </c>
@@ -14616,8 +16968,17 @@
       <c r="D103">
         <v>78</v>
       </c>
+      <c r="AE103" t="s">
+        <v>42</v>
+      </c>
+      <c r="AJ103">
+        <v>4</v>
+      </c>
+      <c r="AK103">
+        <v>4</v>
+      </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B104">
         <v>100</v>
       </c>
@@ -14627,8 +16988,17 @@
       <c r="D104">
         <v>89</v>
       </c>
+      <c r="AE104" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ104">
+        <v>20</v>
+      </c>
+      <c r="AK104">
+        <v>20</v>
+      </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B105">
         <v>1000</v>
       </c>
@@ -14638,8 +17008,17 @@
       <c r="D105">
         <v>93</v>
       </c>
+      <c r="AE105" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ105">
+        <v>40</v>
+      </c>
+      <c r="AK105">
+        <v>40</v>
+      </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B106">
         <v>2000</v>
       </c>
@@ -14649,8 +17028,36 @@
       <c r="D106">
         <v>97</v>
       </c>
+      <c r="AE106" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ106">
+        <v>132</v>
+      </c>
+      <c r="AK106">
+        <v>132</v>
+      </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AE107" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ107">
+        <v>60</v>
+      </c>
+      <c r="AK107">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AJ108">
+        <v>24</v>
+      </c>
+      <c r="AK108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>34</v>
       </c>
@@ -14663,8 +17070,16 @@
       <c r="D114" t="s">
         <v>37</v>
       </c>
+      <c r="AJ114">
+        <f>SUM(AJ102:AJ108)</f>
+        <v>320</v>
+      </c>
+      <c r="AK114">
+        <f>SUM(AK102:AK108)</f>
+        <v>320</v>
+      </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B115">
         <v>5</v>
       </c>
@@ -14675,7 +17090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B116">
         <v>5</v>
       </c>
